--- a/StoreManagement/wwwroot/Uploads/Categories.xlsx
+++ b/StoreManagement/wwwroot/Uploads/Categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khacc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8F2BFB-AA29-457A-88F8-6DB136DB32C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05004BDC-0382-4434-B777-36B7D23B70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>fasdf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>CategoryName</t>
   </si>
@@ -31,34 +28,58 @@
     <t>Description</t>
   </si>
   <si>
-    <t>fadsf</t>
-  </si>
-  <si>
-    <t>fasd</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>rqwfasdfer</t>
-  </si>
-  <si>
-    <t>rqweasr</t>
-  </si>
-  <si>
-    <t>fdsa</t>
-  </si>
-  <si>
-    <t>rqwertret</t>
+    <t>Điện thoại</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Âm thanh</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Đồng hồ</t>
+  </si>
+  <si>
+    <t>Tivi</t>
+  </si>
+  <si>
+    <t>Gia dụng</t>
+  </si>
+  <si>
+    <t>CategoryCode</t>
+  </si>
+  <si>
+    <t>C001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>C006</t>
+  </si>
+  <si>
+    <t>C007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,9 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,83 +427,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DF2C43-225C-41F2-BC3F-7522407B10FE}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.08984375" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45152</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45153</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>45154</v>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45155</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45156</v>
+      <c r="C8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
